--- a/1.Data/2.shiny/coords.xlsx
+++ b/1.Data/2.shiny/coords.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -53,6 +53,21 @@
     <t xml:space="preserve">10</t>
   </si>
   <si>
+    <t xml:space="preserve">quotes_forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Формирование сценарных условиев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок моделирования и прогнозирования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
     <t xml:space="preserve">send_report</t>
   </si>
   <si>
@@ -92,31 +107,31 @@
     <t xml:space="preserve">5</t>
   </si>
   <si>
+    <t xml:space="preserve">download_quotes_agregation_level10.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
     <t xml:space="preserve">download_quotes_agregation_level2.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">download_quotes_agregation_level9.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">model_data</t>
   </si>
   <si>
-    <t xml:space="preserve">data</t>
-  </si>
-  <si>
     <t xml:space="preserve">Прогноз цены метанола</t>
   </si>
   <si>
-    <t xml:space="preserve">Блок моделирования и прогнозирования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
+    <t xml:space="preserve">9</t>
   </si>
   <si>
     <t xml:space="preserve">model_graph</t>
@@ -126,15 +141,6 @@
   </si>
   <si>
     <t xml:space="preserve">Блок графиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quotes_forecast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Формирование сценарных условиев</t>
   </si>
 </sst>
 </file>
@@ -494,10 +500,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>162</v>
+        <v>211</v>
       </c>
       <c r="C2" t="n">
-        <v>198</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -517,42 +523,42 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>544</v>
+        <v>-201</v>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>-3</v>
+        <v>526</v>
       </c>
       <c r="C4" t="n">
-        <v>-134</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -560,25 +566,25 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>-283</v>
+        <v>522</v>
       </c>
       <c r="C5" t="n">
-        <v>-75</v>
+        <v>-94</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -586,55 +592,57 @@
         <v>23</v>
       </c>
       <c r="B6" t="n">
-        <v>-554</v>
+        <v>-289</v>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>-30</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6"/>
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-579</v>
+      </c>
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-553</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-143</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>-550</v>
+        <v>-551</v>
       </c>
       <c r="C8" t="n">
-        <v>-48</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -642,25 +650,23 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>286</v>
+        <v>-582</v>
       </c>
       <c r="C9" t="n">
-        <v>35</v>
+        <v>-144</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>32</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F9"/>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -668,45 +674,62 @@
         <v>34</v>
       </c>
       <c r="B10" t="n">
-        <v>425</v>
+        <v>-589</v>
       </c>
       <c r="C10" t="n">
-        <v>-105</v>
+        <v>-72</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>37</v>
-      </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="n">
-        <v>-44</v>
-      </c>
-      <c r="C11" t="n">
-        <v>111</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="B12" t="n">
+        <v>312</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-46</v>
+      </c>
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="G11" t="s">
-        <v>33</v>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/1.Data/2.shiny/coords.xlsx
+++ b/1.Data/2.shiny/coords.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">interact</t>
   </si>
   <si>
-    <t xml:space="preserve">Визуализация попарных корреляций</t>
+    <t xml:space="preserve">Visualization of pairwise correlations</t>
   </si>
   <si>
     <t xml:space="preserve">Блок взаимодействия с пользователем</t>
@@ -53,94 +53,94 @@
     <t xml:space="preserve">10</t>
   </si>
   <si>
+    <t xml:space="preserve">quotes_forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formation of scenario conditions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок моделирования и прогнозирования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
     <t xml:space="preserve">send_report</t>
   </si>
   <si>
-    <t xml:space="preserve">Подготовка и отправка отчёта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
+    <t xml:space="preserve">Preparing and sending the report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visualization of the results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download_files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loading of initial data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Блок загрузки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">download_quotes_agregation_level1.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">download_quotes_agregation_level10.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dashboard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Визуализация результатов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">download_files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">download</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Загрузка исходных данных</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок загрузки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">download_quotes_agregation_level1.xlsx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5</t>
+    <t xml:space="preserve">6</t>
   </si>
   <si>
     <t xml:space="preserve">download_quotes_agregation_level2.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">6</t>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">download_quotes_agregation_level9.xlsx</t>
   </si>
   <si>
-    <t xml:space="preserve">7</t>
+    <t xml:space="preserve">8</t>
   </si>
   <si>
     <t xml:space="preserve">model_data</t>
   </si>
   <si>
-    <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прогноз цены метанола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Блок моделирования и прогнозирования</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
+    <t xml:space="preserve">Methanol price forecast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
   </si>
   <si>
     <t xml:space="preserve">model_graph</t>
   </si>
   <si>
-    <t xml:space="preserve">Визуализация цена метанола</t>
+    <t xml:space="preserve">Methanol price visualization</t>
   </si>
   <si>
     <t xml:space="preserve">Блок графиков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quotes_forecast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Формирование сценарных условиев</t>
   </si>
 </sst>
 </file>
@@ -523,44 +523,50 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>526</v>
+        <v>-201</v>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>-554</v>
+        <v>526</v>
       </c>
       <c r="C4" t="n">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" t="n">
         <v>522</v>
@@ -569,13 +575,13 @@
         <v>-94</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -583,153 +589,147 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B6" t="n">
-        <v>-289</v>
+        <v>-228</v>
       </c>
       <c r="C6" t="n">
-        <v>-30</v>
+        <v>-43</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-602</v>
+      </c>
+      <c r="C7" t="n">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" t="n">
-        <v>-579</v>
-      </c>
-      <c r="C7" t="n">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
       </c>
       <c r="F7"/>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>-582</v>
+        <v>-593</v>
       </c>
       <c r="C8" t="n">
-        <v>-144</v>
+        <v>112</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E8"/>
       <c r="F8"/>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+      <c r="G8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" t="n">
-        <v>-589</v>
+        <v>-582</v>
       </c>
       <c r="C9" t="n">
-        <v>-72</v>
+        <v>-144</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9"/>
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
       <c r="F9"/>
-      <c r="G9"/>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>-589</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>-72</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" t="s">
         <v>35</v>
       </c>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>36</v>
       </c>
       <c r="B11" t="n">
-        <v>312</v>
+        <v>13</v>
       </c>
       <c r="C11" t="n">
-        <v>-46</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="n">
+        <v>162</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-128</v>
+      </c>
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="n">
-        <v>-201</v>
-      </c>
-      <c r="C12" t="n">
-        <v>128</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>
